--- a/biology/Botanique/Triticum_carthlicum/Triticum_carthlicum.xlsx
+++ b/biology/Botanique/Triticum_carthlicum/Triticum_carthlicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triticum carthlicum, le blé de Perse, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Asie occidentale (Proche-Orient, Caucase). C'est une espèce de blé tétraploïde (2n = 28) de génome AABB[2], considérée par certains auteurs comme une sous-espèce de Triticum turgidum.
-Cette espèce pourrait être à l'origine d'une partie du génome AABBDD du blé tendre hexaploïde, Tricticum aestivum[3]. De récentes études confirme cette précédente hypothèse et suggèrent que T. Carthlicum proviendrait d'un croisement entre l'amidonnier domestiqué et T. aestivum[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triticum carthlicum, le blé de Perse, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Asie occidentale (Proche-Orient, Caucase). C'est une espèce de blé tétraploïde (2n = 28) de génome AABB, considérée par certains auteurs comme une sous-espèce de Triticum turgidum.
+Cette espèce pourrait être à l'origine d'une partie du génome AABBDD du blé tendre hexaploïde, Tricticum aestivum. De récentes études confirme cette précédente hypothèse et suggèrent que T. Carthlicum proviendrait d'un croisement entre l'amidonnier domestiqué et T. aestivum,. 
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (1 juillet 2017)[6] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 juillet 2017) :
 Gigachilon polonicum subsp. carthlicum (Nevski) Á.Löve
 Triticum carthlicum var. arnual Gandilyan
 Triticum carthlicum var. arnurual Gandilyan
@@ -528,8 +545,44 @@
 Triticum persicum (Percival) Vavilov, nom. illeg.
 Triticum turgidum subsp. carthlicum (Nevski) Á.Löve
 Triticum turgidum var. carthlicum (Nevski) P.C.Kuo
-Liste des variétés
-Selon Tropicos                                           (1 juillet 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Triticum_carthlicum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum_carthlicum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon Tropicos                                           (1 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Triticum carthlicum var. arnual Gandilyan
 Triticum carthlicum var. arnurual Gandilyan
 Triticum carthlicum var. arpual Gandilyan
